--- a/Data/Database Backup.xlsx
+++ b/Data/Database Backup.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\velu3\Documents\GitHub\ProjectCDEMCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\velu3\Documents\GitHub\ProjectCDEMCA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1305E82-10A0-422B-B5FF-F37CFAE9DFEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="11640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PropertyDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PropertyDetails!$A$1:$H$101</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="551">
   <si>
     <t>Holiday Inn Express-Tacoma</t>
   </si>
@@ -1638,12 +1646,54 @@
   </si>
   <si>
     <t>Minnesota</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Bought</t>
+  </si>
+  <si>
+    <t>LastLogin</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>ProfileStat</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>INSERT INTO "Web_App_customer" VALUES("</t>
+  </si>
+  <si>
+    <t>" , "</t>
+  </si>
+  <si>
+    <t>" )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1673,8 +1723,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1965,24 +2016,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -2008,7 +2059,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2034,7 +2085,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2060,7 +2111,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2086,7 +2137,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2112,7 +2163,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2138,7 +2189,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2164,7 +2215,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2190,7 +2241,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2267,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2242,7 +2293,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2268,7 +2319,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2294,7 +2345,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2320,7 +2371,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2346,7 +2397,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2372,7 +2423,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2398,7 +2449,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2424,7 +2475,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2450,7 +2501,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2476,7 +2527,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2502,7 +2553,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2528,7 +2579,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2554,7 +2605,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2580,7 +2631,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2606,7 +2657,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2632,7 +2683,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2658,7 +2709,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2684,7 +2735,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2710,7 +2761,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2736,7 +2787,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2762,7 +2813,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2788,7 +2839,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2814,7 +2865,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2840,7 +2891,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2866,7 +2917,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2892,7 +2943,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2918,7 +2969,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2944,7 +2995,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2970,7 +3021,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2996,7 +3047,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3022,7 +3073,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3048,7 +3099,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3074,7 +3125,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3100,7 +3151,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3126,7 +3177,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3152,7 +3203,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3178,7 +3229,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3204,7 +3255,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3230,7 +3281,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3256,7 +3307,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3282,7 +3333,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3308,7 +3359,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3334,7 +3385,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3360,7 +3411,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3386,7 +3437,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3412,7 +3463,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3438,7 +3489,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3464,7 +3515,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3490,7 +3541,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3516,7 +3567,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3542,7 +3593,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3568,7 +3619,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3594,7 +3645,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3620,7 +3671,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3646,7 +3697,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3672,7 +3723,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3698,7 +3749,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3724,7 +3775,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3750,7 +3801,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3776,7 +3827,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3802,7 +3853,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3828,7 +3879,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3854,7 +3905,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3880,7 +3931,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3906,7 +3957,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3932,7 +3983,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3958,7 +4009,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -3984,7 +4035,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4010,7 +4061,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4036,7 +4087,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4062,7 +4113,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4088,7 +4139,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4114,7 +4165,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -4140,7 +4191,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4166,7 +4217,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4192,7 +4243,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4218,7 +4269,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4244,7 +4295,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4270,7 +4321,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4296,7 +4347,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4322,7 +4373,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4348,7 +4399,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -4374,7 +4425,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4400,7 +4451,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4426,7 +4477,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4452,7 +4503,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4478,7 +4529,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4504,7 +4555,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -4530,7 +4581,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4556,7 +4607,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4582,7 +4633,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -4609,11 +4660,3701 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H101"/>
+  <autoFilter ref="A1:H101" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D30010-C543-4496-828D-84337F1A4FA0}">
+  <dimension ref="A1:Y51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K1" t="s">
+        <v>545</v>
+      </c>
+      <c r="M1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N1" t="s">
+        <v>549</v>
+      </c>
+      <c r="O1" t="s">
+        <v>549</v>
+      </c>
+      <c r="P1" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>549</v>
+      </c>
+      <c r="R1" t="s">
+        <v>549</v>
+      </c>
+      <c r="S1" t="s">
+        <v>549</v>
+      </c>
+      <c r="T1" t="s">
+        <v>549</v>
+      </c>
+      <c r="U1" t="s">
+        <v>549</v>
+      </c>
+      <c r="V1" t="s">
+        <v>549</v>
+      </c>
+      <c r="W1" t="s">
+        <v>549</v>
+      </c>
+      <c r="X1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43526</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>546</v>
+      </c>
+      <c r="K2" t="s">
+        <v>405</v>
+      </c>
+      <c r="M2" t="s">
+        <v>548</v>
+      </c>
+      <c r="N2" t="s">
+        <v>549</v>
+      </c>
+      <c r="O2" t="s">
+        <v>549</v>
+      </c>
+      <c r="P2" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>549</v>
+      </c>
+      <c r="R2" t="s">
+        <v>549</v>
+      </c>
+      <c r="S2" t="s">
+        <v>549</v>
+      </c>
+      <c r="T2" t="s">
+        <v>549</v>
+      </c>
+      <c r="U2" t="s">
+        <v>549</v>
+      </c>
+      <c r="V2" t="s">
+        <v>549</v>
+      </c>
+      <c r="W2" t="s">
+        <v>549</v>
+      </c>
+      <c r="X2" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>_xlfn.CONCAT(M2,A2,N2,B2,O2,C2,P2,D2,Q2,E2,R2,F2,S2,G2,T2,H2,U2,I2,V2,J2,W2,K2,X2)</f>
+        <v>INSERT INTO "Web_App_customer" VALUES("1" , "Mary Wu" , "" , "(655) 372-4524" , "ngedmond@live.com" , "New York" , "2" , "43526" , "18" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43527</v>
+      </c>
+      <c r="I3">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>547</v>
+      </c>
+      <c r="K3" t="s">
+        <v>405</v>
+      </c>
+      <c r="M3" t="s">
+        <v>548</v>
+      </c>
+      <c r="N3" t="s">
+        <v>549</v>
+      </c>
+      <c r="O3" t="s">
+        <v>549</v>
+      </c>
+      <c r="P3" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>549</v>
+      </c>
+      <c r="R3" t="s">
+        <v>549</v>
+      </c>
+      <c r="S3" t="s">
+        <v>549</v>
+      </c>
+      <c r="T3" t="s">
+        <v>549</v>
+      </c>
+      <c r="U3" t="s">
+        <v>549</v>
+      </c>
+      <c r="V3" t="s">
+        <v>549</v>
+      </c>
+      <c r="W3" t="s">
+        <v>549</v>
+      </c>
+      <c r="X3" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y3" t="str">
+        <f>_xlfn.CONCAT(M3,A3,N3,B3,O3,C3,P3,D3,Q3,E3,R3,F3,S3,G3,T3,H3,U3,I3,V3,J3,W3,K3,X3)</f>
+        <v>INSERT INTO "Web_App_customer" VALUES("2" , "Nylah Bautista" , "" , "(934) 652-4391" , "giafly@me.com" , "Connecticut" , "4" , "43527" , "19" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43528</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>546</v>
+      </c>
+      <c r="K4" t="s">
+        <v>405</v>
+      </c>
+      <c r="M4" t="s">
+        <v>548</v>
+      </c>
+      <c r="N4" t="s">
+        <v>549</v>
+      </c>
+      <c r="O4" t="s">
+        <v>549</v>
+      </c>
+      <c r="P4" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>549</v>
+      </c>
+      <c r="R4" t="s">
+        <v>549</v>
+      </c>
+      <c r="S4" t="s">
+        <v>549</v>
+      </c>
+      <c r="T4" t="s">
+        <v>549</v>
+      </c>
+      <c r="U4" t="s">
+        <v>549</v>
+      </c>
+      <c r="V4" t="s">
+        <v>549</v>
+      </c>
+      <c r="W4" t="s">
+        <v>549</v>
+      </c>
+      <c r="X4" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" ref="Y4:Y51" si="0">_xlfn.CONCAT(M4,A4,N4,B4,O4,C4,P4,D4,Q4,E4,R4,F4,S4,G4,T4,H4,U4,I4,V4,J4,W4,K4,X4)</f>
+        <v>INSERT INTO "Web_App_customer" VALUES("3" , "Lizeth Fritz" , "" , "(216) 729-7437" , "muadip@me.com" , "New York" , "6" , "43528" , "20" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" t="s">
+        <v>533</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>43529</v>
+      </c>
+      <c r="I5">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>547</v>
+      </c>
+      <c r="K5" t="s">
+        <v>405</v>
+      </c>
+      <c r="M5" t="s">
+        <v>548</v>
+      </c>
+      <c r="N5" t="s">
+        <v>549</v>
+      </c>
+      <c r="O5" t="s">
+        <v>549</v>
+      </c>
+      <c r="P5" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>549</v>
+      </c>
+      <c r="R5" t="s">
+        <v>549</v>
+      </c>
+      <c r="S5" t="s">
+        <v>549</v>
+      </c>
+      <c r="T5" t="s">
+        <v>549</v>
+      </c>
+      <c r="U5" t="s">
+        <v>549</v>
+      </c>
+      <c r="V5" t="s">
+        <v>549</v>
+      </c>
+      <c r="W5" t="s">
+        <v>549</v>
+      </c>
+      <c r="X5" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("4" , "Keith Noble" , "" , "(947) 324-8561" , "kourai@gmail.com" , "Alabama" , "8" , "43529" , "21" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F6" t="s">
+        <v>511</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>43530</v>
+      </c>
+      <c r="I6">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>546</v>
+      </c>
+      <c r="K6" t="s">
+        <v>405</v>
+      </c>
+      <c r="M6" t="s">
+        <v>548</v>
+      </c>
+      <c r="N6" t="s">
+        <v>549</v>
+      </c>
+      <c r="O6" t="s">
+        <v>549</v>
+      </c>
+      <c r="P6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>549</v>
+      </c>
+      <c r="R6" t="s">
+        <v>549</v>
+      </c>
+      <c r="S6" t="s">
+        <v>549</v>
+      </c>
+      <c r="T6" t="s">
+        <v>549</v>
+      </c>
+      <c r="U6" t="s">
+        <v>549</v>
+      </c>
+      <c r="V6" t="s">
+        <v>549</v>
+      </c>
+      <c r="W6" t="s">
+        <v>549</v>
+      </c>
+      <c r="X6" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("5" , "Paityn Turner" , "" , "(368) 754-2691" , "arebenti@optonline.net" , "New Jersey" , "10" , "43530" , "22" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43531</v>
+      </c>
+      <c r="I7">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K7" t="s">
+        <v>405</v>
+      </c>
+      <c r="M7" t="s">
+        <v>548</v>
+      </c>
+      <c r="N7" t="s">
+        <v>549</v>
+      </c>
+      <c r="O7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>549</v>
+      </c>
+      <c r="R7" t="s">
+        <v>549</v>
+      </c>
+      <c r="S7" t="s">
+        <v>549</v>
+      </c>
+      <c r="T7" t="s">
+        <v>549</v>
+      </c>
+      <c r="U7" t="s">
+        <v>549</v>
+      </c>
+      <c r="V7" t="s">
+        <v>549</v>
+      </c>
+      <c r="W7" t="s">
+        <v>549</v>
+      </c>
+      <c r="X7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("6" , "Niko Bray" , "" , "(504) 218-9823" , "dimensio@outlook.com" , "Pennsylvania" , "12" , "43531" , "23" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E8" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" t="s">
+        <v>528</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1">
+        <v>43532</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>546</v>
+      </c>
+      <c r="K8" t="s">
+        <v>405</v>
+      </c>
+      <c r="M8" t="s">
+        <v>548</v>
+      </c>
+      <c r="N8" t="s">
+        <v>549</v>
+      </c>
+      <c r="O8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P8" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>549</v>
+      </c>
+      <c r="R8" t="s">
+        <v>549</v>
+      </c>
+      <c r="S8" t="s">
+        <v>549</v>
+      </c>
+      <c r="T8" t="s">
+        <v>549</v>
+      </c>
+      <c r="U8" t="s">
+        <v>549</v>
+      </c>
+      <c r="V8" t="s">
+        <v>549</v>
+      </c>
+      <c r="W8" t="s">
+        <v>549</v>
+      </c>
+      <c r="X8" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("7" , "Joy Moran" , "" , "(250) 928-1305" , "jeffcovey@aol.com" , "Virginia" , "14" , "43532" , "24" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F9" t="s">
+        <v>512</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1">
+        <v>43533</v>
+      </c>
+      <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>547</v>
+      </c>
+      <c r="K9" t="s">
+        <v>405</v>
+      </c>
+      <c r="M9" t="s">
+        <v>548</v>
+      </c>
+      <c r="N9" t="s">
+        <v>549</v>
+      </c>
+      <c r="O9" t="s">
+        <v>549</v>
+      </c>
+      <c r="P9" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>549</v>
+      </c>
+      <c r="R9" t="s">
+        <v>549</v>
+      </c>
+      <c r="S9" t="s">
+        <v>549</v>
+      </c>
+      <c r="T9" t="s">
+        <v>549</v>
+      </c>
+      <c r="U9" t="s">
+        <v>549</v>
+      </c>
+      <c r="V9" t="s">
+        <v>549</v>
+      </c>
+      <c r="W9" t="s">
+        <v>549</v>
+      </c>
+      <c r="X9" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("8" , "Sean Cohen" , "" , "(841) 947-8235" , "wsnyder@sbcglobal.net" , "New York" , "16" , "43533" , "25" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" t="s">
+        <v>467</v>
+      </c>
+      <c r="E10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F10" t="s">
+        <v>524</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1">
+        <v>43534</v>
+      </c>
+      <c r="I10">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>546</v>
+      </c>
+      <c r="K10" t="s">
+        <v>405</v>
+      </c>
+      <c r="M10" t="s">
+        <v>548</v>
+      </c>
+      <c r="N10" t="s">
+        <v>549</v>
+      </c>
+      <c r="O10" t="s">
+        <v>549</v>
+      </c>
+      <c r="P10" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>549</v>
+      </c>
+      <c r="R10" t="s">
+        <v>549</v>
+      </c>
+      <c r="S10" t="s">
+        <v>549</v>
+      </c>
+      <c r="T10" t="s">
+        <v>549</v>
+      </c>
+      <c r="U10" t="s">
+        <v>549</v>
+      </c>
+      <c r="V10" t="s">
+        <v>549</v>
+      </c>
+      <c r="W10" t="s">
+        <v>549</v>
+      </c>
+      <c r="X10" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("9" , "Kenna Parsons" , "" , "(590) 947-8561" , "oevans@verizon.net" , "Georgia" , "18" , "43534" , "26" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" t="s">
+        <v>468</v>
+      </c>
+      <c r="E11" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" t="s">
+        <v>531</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>43535</v>
+      </c>
+      <c r="I11">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>547</v>
+      </c>
+      <c r="K11" t="s">
+        <v>405</v>
+      </c>
+      <c r="M11" t="s">
+        <v>548</v>
+      </c>
+      <c r="N11" t="s">
+        <v>549</v>
+      </c>
+      <c r="O11" t="s">
+        <v>549</v>
+      </c>
+      <c r="P11" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>549</v>
+      </c>
+      <c r="R11" t="s">
+        <v>549</v>
+      </c>
+      <c r="S11" t="s">
+        <v>549</v>
+      </c>
+      <c r="T11" t="s">
+        <v>549</v>
+      </c>
+      <c r="U11" t="s">
+        <v>549</v>
+      </c>
+      <c r="V11" t="s">
+        <v>549</v>
+      </c>
+      <c r="W11" t="s">
+        <v>549</v>
+      </c>
+      <c r="X11" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("10" , "Nelson Raymond" , "" , "(357) 590-1184" , "phyruxus@sbcglobal.net" , "Michigan" , "20" , "43535" , "27" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" t="s">
+        <v>469</v>
+      </c>
+      <c r="E12" t="s">
+        <v>366</v>
+      </c>
+      <c r="F12" t="s">
+        <v>529</v>
+      </c>
+      <c r="G12">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1">
+        <v>43536</v>
+      </c>
+      <c r="I12">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>546</v>
+      </c>
+      <c r="K12" t="s">
+        <v>405</v>
+      </c>
+      <c r="M12" t="s">
+        <v>548</v>
+      </c>
+      <c r="N12" t="s">
+        <v>549</v>
+      </c>
+      <c r="O12" t="s">
+        <v>549</v>
+      </c>
+      <c r="P12" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>549</v>
+      </c>
+      <c r="R12" t="s">
+        <v>549</v>
+      </c>
+      <c r="S12" t="s">
+        <v>549</v>
+      </c>
+      <c r="T12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U12" t="s">
+        <v>549</v>
+      </c>
+      <c r="V12" t="s">
+        <v>549</v>
+      </c>
+      <c r="W12" t="s">
+        <v>549</v>
+      </c>
+      <c r="X12" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("11" , "Miley Barrera" , "" , "(709) 808-5199" , "seanq@mac.com" , "Indiana" , "22" , "43536" , "28" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" t="s">
+        <v>470</v>
+      </c>
+      <c r="E13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F13" t="s">
+        <v>510</v>
+      </c>
+      <c r="G13">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1">
+        <v>43537</v>
+      </c>
+      <c r="I13">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>547</v>
+      </c>
+      <c r="K13" t="s">
+        <v>405</v>
+      </c>
+      <c r="M13" t="s">
+        <v>548</v>
+      </c>
+      <c r="N13" t="s">
+        <v>549</v>
+      </c>
+      <c r="O13" t="s">
+        <v>549</v>
+      </c>
+      <c r="P13" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>549</v>
+      </c>
+      <c r="R13" t="s">
+        <v>549</v>
+      </c>
+      <c r="S13" t="s">
+        <v>549</v>
+      </c>
+      <c r="T13" t="s">
+        <v>549</v>
+      </c>
+      <c r="U13" t="s">
+        <v>549</v>
+      </c>
+      <c r="V13" t="s">
+        <v>549</v>
+      </c>
+      <c r="W13" t="s">
+        <v>549</v>
+      </c>
+      <c r="X13" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("12" , "Dereon Barron" , "" , "(424) 394-0921" , "seasweb@yahoo.ca" , "Massachusetts" , "24" , "43537" , "29" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" t="s">
+        <v>471</v>
+      </c>
+      <c r="E14" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" t="s">
+        <v>513</v>
+      </c>
+      <c r="G14">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1">
+        <v>43538</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>546</v>
+      </c>
+      <c r="K14" t="s">
+        <v>405</v>
+      </c>
+      <c r="M14" t="s">
+        <v>548</v>
+      </c>
+      <c r="N14" t="s">
+        <v>549</v>
+      </c>
+      <c r="O14" t="s">
+        <v>549</v>
+      </c>
+      <c r="P14" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>549</v>
+      </c>
+      <c r="R14" t="s">
+        <v>549</v>
+      </c>
+      <c r="S14" t="s">
+        <v>549</v>
+      </c>
+      <c r="T14" t="s">
+        <v>549</v>
+      </c>
+      <c r="U14" t="s">
+        <v>549</v>
+      </c>
+      <c r="V14" t="s">
+        <v>549</v>
+      </c>
+      <c r="W14" t="s">
+        <v>549</v>
+      </c>
+      <c r="X14" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("13" , "Semaj Hood" , "" , "(276) 423-9889" , "keiji@mac.com" , "Wisconsin" , "26" , "43538" , "30" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F15" t="s">
+        <v>510</v>
+      </c>
+      <c r="G15">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1">
+        <v>43539</v>
+      </c>
+      <c r="I15">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>547</v>
+      </c>
+      <c r="K15" t="s">
+        <v>405</v>
+      </c>
+      <c r="M15" t="s">
+        <v>548</v>
+      </c>
+      <c r="N15" t="s">
+        <v>549</v>
+      </c>
+      <c r="O15" t="s">
+        <v>549</v>
+      </c>
+      <c r="P15" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>549</v>
+      </c>
+      <c r="R15" t="s">
+        <v>549</v>
+      </c>
+      <c r="S15" t="s">
+        <v>549</v>
+      </c>
+      <c r="T15" t="s">
+        <v>549</v>
+      </c>
+      <c r="U15" t="s">
+        <v>549</v>
+      </c>
+      <c r="V15" t="s">
+        <v>549</v>
+      </c>
+      <c r="W15" t="s">
+        <v>549</v>
+      </c>
+      <c r="X15" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("14" , "Jamiya Ryan" , "" , "(678) 722-5560" , "druschel@msn.com" , "Massachusetts" , "28" , "43539" , "31" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" t="s">
+        <v>473</v>
+      </c>
+      <c r="E16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F16" t="s">
+        <v>521</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1">
+        <v>43540</v>
+      </c>
+      <c r="I16">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>546</v>
+      </c>
+      <c r="K16" t="s">
+        <v>405</v>
+      </c>
+      <c r="M16" t="s">
+        <v>548</v>
+      </c>
+      <c r="N16" t="s">
+        <v>549</v>
+      </c>
+      <c r="O16" t="s">
+        <v>549</v>
+      </c>
+      <c r="P16" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>549</v>
+      </c>
+      <c r="R16" t="s">
+        <v>549</v>
+      </c>
+      <c r="S16" t="s">
+        <v>549</v>
+      </c>
+      <c r="T16" t="s">
+        <v>549</v>
+      </c>
+      <c r="U16" t="s">
+        <v>549</v>
+      </c>
+      <c r="V16" t="s">
+        <v>549</v>
+      </c>
+      <c r="W16" t="s">
+        <v>549</v>
+      </c>
+      <c r="X16" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("15" , "Raina Ferguson" , "" , "(925) 527-6350" , "sthomas@yahoo.com" , "North Carolina" , "30" , "43540" , "32" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" t="s">
+        <v>474</v>
+      </c>
+      <c r="E17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" t="s">
+        <v>531</v>
+      </c>
+      <c r="G17">
+        <v>32</v>
+      </c>
+      <c r="H17" s="1">
+        <v>43541</v>
+      </c>
+      <c r="I17">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>547</v>
+      </c>
+      <c r="K17" t="s">
+        <v>405</v>
+      </c>
+      <c r="M17" t="s">
+        <v>548</v>
+      </c>
+      <c r="N17" t="s">
+        <v>549</v>
+      </c>
+      <c r="O17" t="s">
+        <v>549</v>
+      </c>
+      <c r="P17" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>549</v>
+      </c>
+      <c r="R17" t="s">
+        <v>549</v>
+      </c>
+      <c r="S17" t="s">
+        <v>549</v>
+      </c>
+      <c r="T17" t="s">
+        <v>549</v>
+      </c>
+      <c r="U17" t="s">
+        <v>549</v>
+      </c>
+      <c r="V17" t="s">
+        <v>549</v>
+      </c>
+      <c r="W17" t="s">
+        <v>549</v>
+      </c>
+      <c r="X17" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("16" , "Luciano Villarreal" , "" , "(879) 331-8796" , "gomor@me.com" , "Michigan" , "32" , "43541" , "33" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" t="s">
+        <v>475</v>
+      </c>
+      <c r="E18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F18" t="s">
+        <v>522</v>
+      </c>
+      <c r="G18">
+        <v>34</v>
+      </c>
+      <c r="H18" s="1">
+        <v>43542</v>
+      </c>
+      <c r="I18">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>546</v>
+      </c>
+      <c r="K18" t="s">
+        <v>405</v>
+      </c>
+      <c r="M18" t="s">
+        <v>548</v>
+      </c>
+      <c r="N18" t="s">
+        <v>549</v>
+      </c>
+      <c r="O18" t="s">
+        <v>549</v>
+      </c>
+      <c r="P18" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>549</v>
+      </c>
+      <c r="R18" t="s">
+        <v>549</v>
+      </c>
+      <c r="S18" t="s">
+        <v>549</v>
+      </c>
+      <c r="T18" t="s">
+        <v>549</v>
+      </c>
+      <c r="U18" t="s">
+        <v>549</v>
+      </c>
+      <c r="V18" t="s">
+        <v>549</v>
+      </c>
+      <c r="W18" t="s">
+        <v>549</v>
+      </c>
+      <c r="X18" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("17" , "Alyssa Gould" , "" , "(912) 837-8743" , "ardagna@yahoo.com" , "Maryland" , "34" , "43542" , "34" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>476</v>
+      </c>
+      <c r="E19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F19" t="s">
+        <v>513</v>
+      </c>
+      <c r="G19">
+        <v>36</v>
+      </c>
+      <c r="H19" s="1">
+        <v>43543</v>
+      </c>
+      <c r="I19">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>547</v>
+      </c>
+      <c r="K19" t="s">
+        <v>405</v>
+      </c>
+      <c r="M19" t="s">
+        <v>548</v>
+      </c>
+      <c r="N19" t="s">
+        <v>549</v>
+      </c>
+      <c r="O19" t="s">
+        <v>549</v>
+      </c>
+      <c r="P19" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>549</v>
+      </c>
+      <c r="R19" t="s">
+        <v>549</v>
+      </c>
+      <c r="S19" t="s">
+        <v>549</v>
+      </c>
+      <c r="T19" t="s">
+        <v>549</v>
+      </c>
+      <c r="U19" t="s">
+        <v>549</v>
+      </c>
+      <c r="V19" t="s">
+        <v>549</v>
+      </c>
+      <c r="W19" t="s">
+        <v>549</v>
+      </c>
+      <c r="X19" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("18" , "Jordan Henry" , "" , "(616) 761-2763" , "kawasaki@comcast.net" , "Wisconsin" , "36" , "43543" , "35" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" t="s">
+        <v>477</v>
+      </c>
+      <c r="E20" t="s">
+        <v>374</v>
+      </c>
+      <c r="F20" t="s">
+        <v>523</v>
+      </c>
+      <c r="G20">
+        <v>38</v>
+      </c>
+      <c r="H20" s="1">
+        <v>43544</v>
+      </c>
+      <c r="I20">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
+        <v>546</v>
+      </c>
+      <c r="K20" t="s">
+        <v>405</v>
+      </c>
+      <c r="M20" t="s">
+        <v>548</v>
+      </c>
+      <c r="N20" t="s">
+        <v>549</v>
+      </c>
+      <c r="O20" t="s">
+        <v>549</v>
+      </c>
+      <c r="P20" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>549</v>
+      </c>
+      <c r="R20" t="s">
+        <v>549</v>
+      </c>
+      <c r="S20" t="s">
+        <v>549</v>
+      </c>
+      <c r="T20" t="s">
+        <v>549</v>
+      </c>
+      <c r="U20" t="s">
+        <v>549</v>
+      </c>
+      <c r="V20" t="s">
+        <v>549</v>
+      </c>
+      <c r="W20" t="s">
+        <v>549</v>
+      </c>
+      <c r="X20" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("19" , "Kyla Peck" , "" , "(683) 641-6583" , "corrada@msn.com" , "California" , "38" , "43544" , "36" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" t="s">
+        <v>478</v>
+      </c>
+      <c r="E21" t="s">
+        <v>375</v>
+      </c>
+      <c r="F21" t="s">
+        <v>512</v>
+      </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1">
+        <v>43545</v>
+      </c>
+      <c r="I21">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>547</v>
+      </c>
+      <c r="K21" t="s">
+        <v>405</v>
+      </c>
+      <c r="M21" t="s">
+        <v>548</v>
+      </c>
+      <c r="N21" t="s">
+        <v>549</v>
+      </c>
+      <c r="O21" t="s">
+        <v>549</v>
+      </c>
+      <c r="P21" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>549</v>
+      </c>
+      <c r="R21" t="s">
+        <v>549</v>
+      </c>
+      <c r="S21" t="s">
+        <v>549</v>
+      </c>
+      <c r="T21" t="s">
+        <v>549</v>
+      </c>
+      <c r="U21" t="s">
+        <v>549</v>
+      </c>
+      <c r="V21" t="s">
+        <v>549</v>
+      </c>
+      <c r="W21" t="s">
+        <v>549</v>
+      </c>
+      <c r="X21" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("20" , "Aliya Rice" , "" , "(464) 946-8777" , "galbra@live.com" , "New York" , "40" , "43545" , "37" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" t="s">
+        <v>479</v>
+      </c>
+      <c r="E22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F22" t="s">
+        <v>511</v>
+      </c>
+      <c r="G22">
+        <v>42</v>
+      </c>
+      <c r="H22" s="1">
+        <v>43546</v>
+      </c>
+      <c r="I22">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s">
+        <v>546</v>
+      </c>
+      <c r="K22" t="s">
+        <v>405</v>
+      </c>
+      <c r="M22" t="s">
+        <v>548</v>
+      </c>
+      <c r="N22" t="s">
+        <v>549</v>
+      </c>
+      <c r="O22" t="s">
+        <v>549</v>
+      </c>
+      <c r="P22" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>549</v>
+      </c>
+      <c r="R22" t="s">
+        <v>549</v>
+      </c>
+      <c r="S22" t="s">
+        <v>549</v>
+      </c>
+      <c r="T22" t="s">
+        <v>549</v>
+      </c>
+      <c r="U22" t="s">
+        <v>549</v>
+      </c>
+      <c r="V22" t="s">
+        <v>549</v>
+      </c>
+      <c r="W22" t="s">
+        <v>549</v>
+      </c>
+      <c r="X22" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("21" , "Jorge Whitehead" , "" , "(781) 937-9181" , "nimaclea@gmail.com" , "New Jersey" , "42" , "43546" , "38" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" t="s">
+        <v>480</v>
+      </c>
+      <c r="E23" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" t="s">
+        <v>512</v>
+      </c>
+      <c r="G23">
+        <v>44</v>
+      </c>
+      <c r="H23" s="1">
+        <v>43547</v>
+      </c>
+      <c r="I23">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
+        <v>547</v>
+      </c>
+      <c r="K23" t="s">
+        <v>405</v>
+      </c>
+      <c r="M23" t="s">
+        <v>548</v>
+      </c>
+      <c r="N23" t="s">
+        <v>549</v>
+      </c>
+      <c r="O23" t="s">
+        <v>549</v>
+      </c>
+      <c r="P23" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>549</v>
+      </c>
+      <c r="R23" t="s">
+        <v>549</v>
+      </c>
+      <c r="S23" t="s">
+        <v>549</v>
+      </c>
+      <c r="T23" t="s">
+        <v>549</v>
+      </c>
+      <c r="U23" t="s">
+        <v>549</v>
+      </c>
+      <c r="V23" t="s">
+        <v>549</v>
+      </c>
+      <c r="W23" t="s">
+        <v>549</v>
+      </c>
+      <c r="X23" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("22" , "Immanuel Bush" , "" , "(668) 869-1487" , "fangorn@verizon.net" , "New York" , "44" , "43547" , "39" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" t="s">
+        <v>481</v>
+      </c>
+      <c r="E24" t="s">
+        <v>378</v>
+      </c>
+      <c r="F24" t="s">
+        <v>524</v>
+      </c>
+      <c r="G24">
+        <v>46</v>
+      </c>
+      <c r="H24" s="1">
+        <v>43548</v>
+      </c>
+      <c r="I24">
+        <v>40</v>
+      </c>
+      <c r="J24" t="s">
+        <v>546</v>
+      </c>
+      <c r="K24" t="s">
+        <v>405</v>
+      </c>
+      <c r="M24" t="s">
+        <v>548</v>
+      </c>
+      <c r="N24" t="s">
+        <v>549</v>
+      </c>
+      <c r="O24" t="s">
+        <v>549</v>
+      </c>
+      <c r="P24" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>549</v>
+      </c>
+      <c r="R24" t="s">
+        <v>549</v>
+      </c>
+      <c r="S24" t="s">
+        <v>549</v>
+      </c>
+      <c r="T24" t="s">
+        <v>549</v>
+      </c>
+      <c r="U24" t="s">
+        <v>549</v>
+      </c>
+      <c r="V24" t="s">
+        <v>549</v>
+      </c>
+      <c r="W24" t="s">
+        <v>549</v>
+      </c>
+      <c r="X24" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("23" , "Alina Branch" , "" , "(208) 316-0565" , "euice@icloud.com" , "Georgia" , "46" , "43548" , "40" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" t="s">
+        <v>482</v>
+      </c>
+      <c r="E25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F25" t="s">
+        <v>528</v>
+      </c>
+      <c r="G25">
+        <v>48</v>
+      </c>
+      <c r="H25" s="1">
+        <v>43549</v>
+      </c>
+      <c r="I25">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>547</v>
+      </c>
+      <c r="K25" t="s">
+        <v>405</v>
+      </c>
+      <c r="M25" t="s">
+        <v>548</v>
+      </c>
+      <c r="N25" t="s">
+        <v>549</v>
+      </c>
+      <c r="O25" t="s">
+        <v>549</v>
+      </c>
+      <c r="P25" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>549</v>
+      </c>
+      <c r="R25" t="s">
+        <v>549</v>
+      </c>
+      <c r="S25" t="s">
+        <v>549</v>
+      </c>
+      <c r="T25" t="s">
+        <v>549</v>
+      </c>
+      <c r="U25" t="s">
+        <v>549</v>
+      </c>
+      <c r="V25" t="s">
+        <v>549</v>
+      </c>
+      <c r="W25" t="s">
+        <v>549</v>
+      </c>
+      <c r="X25" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("24" , "Davon Shepherd" , "" , "(408) 341-3904" , "gregh@me.com" , "Virginia" , "48" , "43549" , "41" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" t="s">
+        <v>483</v>
+      </c>
+      <c r="E26" t="s">
+        <v>380</v>
+      </c>
+      <c r="F26" t="s">
+        <v>510</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26" s="1">
+        <v>43550</v>
+      </c>
+      <c r="I26">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
+        <v>546</v>
+      </c>
+      <c r="K26" t="s">
+        <v>405</v>
+      </c>
+      <c r="M26" t="s">
+        <v>548</v>
+      </c>
+      <c r="N26" t="s">
+        <v>549</v>
+      </c>
+      <c r="O26" t="s">
+        <v>549</v>
+      </c>
+      <c r="P26" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>549</v>
+      </c>
+      <c r="R26" t="s">
+        <v>549</v>
+      </c>
+      <c r="S26" t="s">
+        <v>549</v>
+      </c>
+      <c r="T26" t="s">
+        <v>549</v>
+      </c>
+      <c r="U26" t="s">
+        <v>549</v>
+      </c>
+      <c r="V26" t="s">
+        <v>549</v>
+      </c>
+      <c r="W26" t="s">
+        <v>549</v>
+      </c>
+      <c r="X26" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("25" , "Madalyn Spencer" , "" , "(433) 724-8223" , "mavilar@comcast.net" , "Massachusetts" , "50" , "43550" , "42" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>280</v>
+      </c>
+      <c r="D27" t="s">
+        <v>484</v>
+      </c>
+      <c r="E27" t="s">
+        <v>381</v>
+      </c>
+      <c r="F27" t="s">
+        <v>527</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>43557</v>
+      </c>
+      <c r="I27">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>547</v>
+      </c>
+      <c r="K27" t="s">
+        <v>405</v>
+      </c>
+      <c r="M27" t="s">
+        <v>548</v>
+      </c>
+      <c r="N27" t="s">
+        <v>549</v>
+      </c>
+      <c r="O27" t="s">
+        <v>549</v>
+      </c>
+      <c r="P27" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>549</v>
+      </c>
+      <c r="R27" t="s">
+        <v>549</v>
+      </c>
+      <c r="S27" t="s">
+        <v>549</v>
+      </c>
+      <c r="T27" t="s">
+        <v>549</v>
+      </c>
+      <c r="U27" t="s">
+        <v>549</v>
+      </c>
+      <c r="V27" t="s">
+        <v>549</v>
+      </c>
+      <c r="W27" t="s">
+        <v>549</v>
+      </c>
+      <c r="X27" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("26" , "Zain Shepard" , "" , "(238) 677-5018" , "philb@me.com" , "Florida" , "1" , "43557" , "19" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" t="s">
+        <v>485</v>
+      </c>
+      <c r="E28" t="s">
+        <v>382</v>
+      </c>
+      <c r="F28" t="s">
+        <v>511</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>43558</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>546</v>
+      </c>
+      <c r="K28" t="s">
+        <v>405</v>
+      </c>
+      <c r="M28" t="s">
+        <v>548</v>
+      </c>
+      <c r="N28" t="s">
+        <v>549</v>
+      </c>
+      <c r="O28" t="s">
+        <v>549</v>
+      </c>
+      <c r="P28" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>549</v>
+      </c>
+      <c r="R28" t="s">
+        <v>549</v>
+      </c>
+      <c r="S28" t="s">
+        <v>549</v>
+      </c>
+      <c r="T28" t="s">
+        <v>549</v>
+      </c>
+      <c r="U28" t="s">
+        <v>549</v>
+      </c>
+      <c r="V28" t="s">
+        <v>549</v>
+      </c>
+      <c r="W28" t="s">
+        <v>549</v>
+      </c>
+      <c r="X28" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("27" , "Dalton Parks" , "" , "(605) 511-2445" , "hakim@me.com" , "New Jersey" , "3" , "43558" , "20" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" t="s">
+        <v>486</v>
+      </c>
+      <c r="E29" t="s">
+        <v>383</v>
+      </c>
+      <c r="F29" t="s">
+        <v>525</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>43559</v>
+      </c>
+      <c r="I29">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>547</v>
+      </c>
+      <c r="K29" t="s">
+        <v>405</v>
+      </c>
+      <c r="M29" t="s">
+        <v>548</v>
+      </c>
+      <c r="N29" t="s">
+        <v>549</v>
+      </c>
+      <c r="O29" t="s">
+        <v>549</v>
+      </c>
+      <c r="P29" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>549</v>
+      </c>
+      <c r="R29" t="s">
+        <v>549</v>
+      </c>
+      <c r="S29" t="s">
+        <v>549</v>
+      </c>
+      <c r="T29" t="s">
+        <v>549</v>
+      </c>
+      <c r="U29" t="s">
+        <v>549</v>
+      </c>
+      <c r="V29" t="s">
+        <v>549</v>
+      </c>
+      <c r="W29" t="s">
+        <v>549</v>
+      </c>
+      <c r="X29" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("28" , "Kole Buckley" , "" , "(515) 615-1585" , "frosal@outlook.com" , "Pennsylvania" , "5" , "43559" , "21" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F30" t="s">
+        <v>517</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30" s="1">
+        <v>43560</v>
+      </c>
+      <c r="I30">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>546</v>
+      </c>
+      <c r="K30" t="s">
+        <v>405</v>
+      </c>
+      <c r="M30" t="s">
+        <v>548</v>
+      </c>
+      <c r="N30" t="s">
+        <v>549</v>
+      </c>
+      <c r="O30" t="s">
+        <v>549</v>
+      </c>
+      <c r="P30" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>549</v>
+      </c>
+      <c r="R30" t="s">
+        <v>549</v>
+      </c>
+      <c r="S30" t="s">
+        <v>549</v>
+      </c>
+      <c r="T30" t="s">
+        <v>549</v>
+      </c>
+      <c r="U30" t="s">
+        <v>549</v>
+      </c>
+      <c r="V30" t="s">
+        <v>549</v>
+      </c>
+      <c r="W30" t="s">
+        <v>549</v>
+      </c>
+      <c r="X30" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("29" , "Dashawn Zavala" , "" , "(953) 458-5651" , "crusader@sbcglobal.net" , "Illinois" , "7" , "43560" , "22" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D31" t="s">
+        <v>488</v>
+      </c>
+      <c r="E31" t="s">
+        <v>331</v>
+      </c>
+      <c r="F31" t="s">
+        <v>534</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1">
+        <v>43561</v>
+      </c>
+      <c r="I31">
+        <v>23</v>
+      </c>
+      <c r="J31" t="s">
+        <v>547</v>
+      </c>
+      <c r="K31" t="s">
+        <v>405</v>
+      </c>
+      <c r="M31" t="s">
+        <v>548</v>
+      </c>
+      <c r="N31" t="s">
+        <v>549</v>
+      </c>
+      <c r="O31" t="s">
+        <v>549</v>
+      </c>
+      <c r="P31" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>549</v>
+      </c>
+      <c r="R31" t="s">
+        <v>549</v>
+      </c>
+      <c r="S31" t="s">
+        <v>549</v>
+      </c>
+      <c r="T31" t="s">
+        <v>549</v>
+      </c>
+      <c r="U31" t="s">
+        <v>549</v>
+      </c>
+      <c r="V31" t="s">
+        <v>549</v>
+      </c>
+      <c r="W31" t="s">
+        <v>549</v>
+      </c>
+      <c r="X31" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("30" , "Kirsten Lopez" , "" , "(353) 790-0285" , "dhwon@mac.com" , "West Virginia" , "9" , "43561" , "23" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" t="s">
+        <v>489</v>
+      </c>
+      <c r="E32" t="s">
+        <v>385</v>
+      </c>
+      <c r="F32" t="s">
+        <v>531</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1">
+        <v>43562</v>
+      </c>
+      <c r="I32">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>546</v>
+      </c>
+      <c r="K32" t="s">
+        <v>405</v>
+      </c>
+      <c r="M32" t="s">
+        <v>548</v>
+      </c>
+      <c r="N32" t="s">
+        <v>549</v>
+      </c>
+      <c r="O32" t="s">
+        <v>549</v>
+      </c>
+      <c r="P32" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>549</v>
+      </c>
+      <c r="R32" t="s">
+        <v>549</v>
+      </c>
+      <c r="S32" t="s">
+        <v>549</v>
+      </c>
+      <c r="T32" t="s">
+        <v>549</v>
+      </c>
+      <c r="U32" t="s">
+        <v>549</v>
+      </c>
+      <c r="V32" t="s">
+        <v>549</v>
+      </c>
+      <c r="W32" t="s">
+        <v>549</v>
+      </c>
+      <c r="X32" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("31" , "Glenn Duke" , "" , "(564) 627-1120" , "rande@yahoo.com" , "Michigan" , "11" , "43562" , "24" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D33" t="s">
+        <v>490</v>
+      </c>
+      <c r="E33" t="s">
+        <v>386</v>
+      </c>
+      <c r="F33" t="s">
+        <v>535</v>
+      </c>
+      <c r="G33">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1">
+        <v>43563</v>
+      </c>
+      <c r="I33">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>547</v>
+      </c>
+      <c r="K33" t="s">
+        <v>405</v>
+      </c>
+      <c r="M33" t="s">
+        <v>548</v>
+      </c>
+      <c r="N33" t="s">
+        <v>549</v>
+      </c>
+      <c r="O33" t="s">
+        <v>549</v>
+      </c>
+      <c r="P33" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>549</v>
+      </c>
+      <c r="R33" t="s">
+        <v>549</v>
+      </c>
+      <c r="S33" t="s">
+        <v>549</v>
+      </c>
+      <c r="T33" t="s">
+        <v>549</v>
+      </c>
+      <c r="U33" t="s">
+        <v>549</v>
+      </c>
+      <c r="V33" t="s">
+        <v>549</v>
+      </c>
+      <c r="W33" t="s">
+        <v>549</v>
+      </c>
+      <c r="X33" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("32" , "Rodney Morales" , "" , "(672) 760-1986" , "parrt@sbcglobal.net" , "Kentucky" , "13" , "43563" , "25" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" t="s">
+        <v>491</v>
+      </c>
+      <c r="E34" t="s">
+        <v>387</v>
+      </c>
+      <c r="F34" t="s">
+        <v>512</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1">
+        <v>43564</v>
+      </c>
+      <c r="I34">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
+        <v>546</v>
+      </c>
+      <c r="K34" t="s">
+        <v>405</v>
+      </c>
+      <c r="M34" t="s">
+        <v>548</v>
+      </c>
+      <c r="N34" t="s">
+        <v>549</v>
+      </c>
+      <c r="O34" t="s">
+        <v>549</v>
+      </c>
+      <c r="P34" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>549</v>
+      </c>
+      <c r="R34" t="s">
+        <v>549</v>
+      </c>
+      <c r="S34" t="s">
+        <v>549</v>
+      </c>
+      <c r="T34" t="s">
+        <v>549</v>
+      </c>
+      <c r="U34" t="s">
+        <v>549</v>
+      </c>
+      <c r="V34" t="s">
+        <v>549</v>
+      </c>
+      <c r="W34" t="s">
+        <v>549</v>
+      </c>
+      <c r="X34" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("33" , "Mitchell Harvey" , "" , "(737) 317-0391" , "wainwrig@comcast.net" , "New York" , "15" , "43564" , "26" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>288</v>
+      </c>
+      <c r="D35" t="s">
+        <v>492</v>
+      </c>
+      <c r="E35" t="s">
+        <v>388</v>
+      </c>
+      <c r="F35" t="s">
+        <v>531</v>
+      </c>
+      <c r="G35">
+        <v>17</v>
+      </c>
+      <c r="H35" s="1">
+        <v>43565</v>
+      </c>
+      <c r="I35">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>547</v>
+      </c>
+      <c r="K35" t="s">
+        <v>405</v>
+      </c>
+      <c r="M35" t="s">
+        <v>548</v>
+      </c>
+      <c r="N35" t="s">
+        <v>549</v>
+      </c>
+      <c r="O35" t="s">
+        <v>549</v>
+      </c>
+      <c r="P35" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>549</v>
+      </c>
+      <c r="R35" t="s">
+        <v>549</v>
+      </c>
+      <c r="S35" t="s">
+        <v>549</v>
+      </c>
+      <c r="T35" t="s">
+        <v>549</v>
+      </c>
+      <c r="U35" t="s">
+        <v>549</v>
+      </c>
+      <c r="V35" t="s">
+        <v>549</v>
+      </c>
+      <c r="W35" t="s">
+        <v>549</v>
+      </c>
+      <c r="X35" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("34" , "Brett Norris" , "" , "(222) 833-1350" , "leviathan@hotmail.com" , "Michigan" , "17" , "43565" , "27" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" t="s">
+        <v>493</v>
+      </c>
+      <c r="E36" t="s">
+        <v>389</v>
+      </c>
+      <c r="F36" t="s">
+        <v>515</v>
+      </c>
+      <c r="G36">
+        <v>19</v>
+      </c>
+      <c r="H36" s="1">
+        <v>43566</v>
+      </c>
+      <c r="I36">
+        <v>28</v>
+      </c>
+      <c r="J36" t="s">
+        <v>546</v>
+      </c>
+      <c r="K36" t="s">
+        <v>405</v>
+      </c>
+      <c r="M36" t="s">
+        <v>548</v>
+      </c>
+      <c r="N36" t="s">
+        <v>549</v>
+      </c>
+      <c r="O36" t="s">
+        <v>549</v>
+      </c>
+      <c r="P36" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>549</v>
+      </c>
+      <c r="R36" t="s">
+        <v>549</v>
+      </c>
+      <c r="S36" t="s">
+        <v>549</v>
+      </c>
+      <c r="T36" t="s">
+        <v>549</v>
+      </c>
+      <c r="U36" t="s">
+        <v>549</v>
+      </c>
+      <c r="V36" t="s">
+        <v>549</v>
+      </c>
+      <c r="W36" t="s">
+        <v>549</v>
+      </c>
+      <c r="X36" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("35" , "Patrick Rivas" , "" , "(272) 968-0230" , "flaviog@live.com" , "Texas" , "19" , "43566" , "28" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>290</v>
+      </c>
+      <c r="D37" t="s">
+        <v>494</v>
+      </c>
+      <c r="E37" t="s">
+        <v>390</v>
+      </c>
+      <c r="F37" t="s">
+        <v>536</v>
+      </c>
+      <c r="G37">
+        <v>21</v>
+      </c>
+      <c r="H37" s="1">
+        <v>43567</v>
+      </c>
+      <c r="I37">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>547</v>
+      </c>
+      <c r="K37" t="s">
+        <v>405</v>
+      </c>
+      <c r="M37" t="s">
+        <v>548</v>
+      </c>
+      <c r="N37" t="s">
+        <v>549</v>
+      </c>
+      <c r="O37" t="s">
+        <v>549</v>
+      </c>
+      <c r="P37" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>549</v>
+      </c>
+      <c r="R37" t="s">
+        <v>549</v>
+      </c>
+      <c r="S37" t="s">
+        <v>549</v>
+      </c>
+      <c r="T37" t="s">
+        <v>549</v>
+      </c>
+      <c r="U37" t="s">
+        <v>549</v>
+      </c>
+      <c r="V37" t="s">
+        <v>549</v>
+      </c>
+      <c r="W37" t="s">
+        <v>549</v>
+      </c>
+      <c r="X37" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("36" , "Ernesto Campos" , "" , "(873) 772-6256" , "kosact@yahoo.ca" , "Minnesota" , "21" , "43567" , "29" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>291</v>
+      </c>
+      <c r="D38" t="s">
+        <v>495</v>
+      </c>
+      <c r="E38" t="s">
+        <v>391</v>
+      </c>
+      <c r="F38" t="s">
+        <v>528</v>
+      </c>
+      <c r="G38">
+        <v>23</v>
+      </c>
+      <c r="H38" s="1">
+        <v>43568</v>
+      </c>
+      <c r="I38">
+        <v>30</v>
+      </c>
+      <c r="J38" t="s">
+        <v>546</v>
+      </c>
+      <c r="K38" t="s">
+        <v>405</v>
+      </c>
+      <c r="M38" t="s">
+        <v>548</v>
+      </c>
+      <c r="N38" t="s">
+        <v>549</v>
+      </c>
+      <c r="O38" t="s">
+        <v>549</v>
+      </c>
+      <c r="P38" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>549</v>
+      </c>
+      <c r="R38" t="s">
+        <v>549</v>
+      </c>
+      <c r="S38" t="s">
+        <v>549</v>
+      </c>
+      <c r="T38" t="s">
+        <v>549</v>
+      </c>
+      <c r="U38" t="s">
+        <v>549</v>
+      </c>
+      <c r="V38" t="s">
+        <v>549</v>
+      </c>
+      <c r="W38" t="s">
+        <v>549</v>
+      </c>
+      <c r="X38" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("37" , "Antoine Walters" , "" , "(449) 791-9593" , "lbecchi@verizon.net" , "Virginia" , "23" , "43568" , "30" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" t="s">
+        <v>496</v>
+      </c>
+      <c r="E39" t="s">
+        <v>392</v>
+      </c>
+      <c r="F39" t="s">
+        <v>523</v>
+      </c>
+      <c r="G39">
+        <v>25</v>
+      </c>
+      <c r="H39" s="1">
+        <v>43569</v>
+      </c>
+      <c r="I39">
+        <v>31</v>
+      </c>
+      <c r="J39" t="s">
+        <v>547</v>
+      </c>
+      <c r="K39" t="s">
+        <v>405</v>
+      </c>
+      <c r="M39" t="s">
+        <v>548</v>
+      </c>
+      <c r="N39" t="s">
+        <v>549</v>
+      </c>
+      <c r="O39" t="s">
+        <v>549</v>
+      </c>
+      <c r="P39" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>549</v>
+      </c>
+      <c r="R39" t="s">
+        <v>549</v>
+      </c>
+      <c r="S39" t="s">
+        <v>549</v>
+      </c>
+      <c r="T39" t="s">
+        <v>549</v>
+      </c>
+      <c r="U39" t="s">
+        <v>549</v>
+      </c>
+      <c r="V39" t="s">
+        <v>549</v>
+      </c>
+      <c r="W39" t="s">
+        <v>549</v>
+      </c>
+      <c r="X39" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("38" , "Ahmed Webster" , "" , "(548) 926-3258" , "metzzo@sbcglobal.net" , "California" , "25" , "43569" , "31" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>293</v>
+      </c>
+      <c r="D40" t="s">
+        <v>497</v>
+      </c>
+      <c r="E40" t="s">
+        <v>393</v>
+      </c>
+      <c r="F40" t="s">
+        <v>512</v>
+      </c>
+      <c r="G40">
+        <v>27</v>
+      </c>
+      <c r="H40" s="1">
+        <v>43570</v>
+      </c>
+      <c r="I40">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
+        <v>546</v>
+      </c>
+      <c r="K40" t="s">
+        <v>405</v>
+      </c>
+      <c r="M40" t="s">
+        <v>548</v>
+      </c>
+      <c r="N40" t="s">
+        <v>549</v>
+      </c>
+      <c r="O40" t="s">
+        <v>549</v>
+      </c>
+      <c r="P40" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>549</v>
+      </c>
+      <c r="R40" t="s">
+        <v>549</v>
+      </c>
+      <c r="S40" t="s">
+        <v>549</v>
+      </c>
+      <c r="T40" t="s">
+        <v>549</v>
+      </c>
+      <c r="U40" t="s">
+        <v>549</v>
+      </c>
+      <c r="V40" t="s">
+        <v>549</v>
+      </c>
+      <c r="W40" t="s">
+        <v>549</v>
+      </c>
+      <c r="X40" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("39" , "Lorena Vang" , "" , "(666) 941-8172" , "bahwi@aol.com" , "New York" , "27" , "43570" , "32" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>294</v>
+      </c>
+      <c r="D41" t="s">
+        <v>498</v>
+      </c>
+      <c r="E41" t="s">
+        <v>394</v>
+      </c>
+      <c r="F41" t="s">
+        <v>536</v>
+      </c>
+      <c r="G41">
+        <v>29</v>
+      </c>
+      <c r="H41" s="1">
+        <v>43571</v>
+      </c>
+      <c r="I41">
+        <v>33</v>
+      </c>
+      <c r="J41" t="s">
+        <v>547</v>
+      </c>
+      <c r="K41" t="s">
+        <v>405</v>
+      </c>
+      <c r="M41" t="s">
+        <v>548</v>
+      </c>
+      <c r="N41" t="s">
+        <v>549</v>
+      </c>
+      <c r="O41" t="s">
+        <v>549</v>
+      </c>
+      <c r="P41" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>549</v>
+      </c>
+      <c r="R41" t="s">
+        <v>549</v>
+      </c>
+      <c r="S41" t="s">
+        <v>549</v>
+      </c>
+      <c r="T41" t="s">
+        <v>549</v>
+      </c>
+      <c r="U41" t="s">
+        <v>549</v>
+      </c>
+      <c r="V41" t="s">
+        <v>549</v>
+      </c>
+      <c r="W41" t="s">
+        <v>549</v>
+      </c>
+      <c r="X41" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("40" , "Yasmin Holder" , "" , "(286) 455-7708" , "rsmartin@me.com" , "Minnesota" , "29" , "43571" , "33" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" t="s">
+        <v>499</v>
+      </c>
+      <c r="E42" t="s">
+        <v>395</v>
+      </c>
+      <c r="F42" t="s">
+        <v>518</v>
+      </c>
+      <c r="G42">
+        <v>31</v>
+      </c>
+      <c r="H42" s="1">
+        <v>43572</v>
+      </c>
+      <c r="I42">
+        <v>34</v>
+      </c>
+      <c r="J42" t="s">
+        <v>546</v>
+      </c>
+      <c r="K42" t="s">
+        <v>405</v>
+      </c>
+      <c r="M42" t="s">
+        <v>548</v>
+      </c>
+      <c r="N42" t="s">
+        <v>549</v>
+      </c>
+      <c r="O42" t="s">
+        <v>549</v>
+      </c>
+      <c r="P42" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>549</v>
+      </c>
+      <c r="R42" t="s">
+        <v>549</v>
+      </c>
+      <c r="S42" t="s">
+        <v>549</v>
+      </c>
+      <c r="T42" t="s">
+        <v>549</v>
+      </c>
+      <c r="U42" t="s">
+        <v>549</v>
+      </c>
+      <c r="V42" t="s">
+        <v>549</v>
+      </c>
+      <c r="W42" t="s">
+        <v>549</v>
+      </c>
+      <c r="X42" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("41" , "Dylan Strong" , "" , "(848) 791-2680" , "vertigo@yahoo.com" , "Ohio" , "31" , "43572" , "34" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" t="s">
+        <v>500</v>
+      </c>
+      <c r="E43" t="s">
+        <v>396</v>
+      </c>
+      <c r="F43" t="s">
+        <v>511</v>
+      </c>
+      <c r="G43">
+        <v>33</v>
+      </c>
+      <c r="H43" s="1">
+        <v>43573</v>
+      </c>
+      <c r="I43">
+        <v>35</v>
+      </c>
+      <c r="J43" t="s">
+        <v>547</v>
+      </c>
+      <c r="K43" t="s">
+        <v>405</v>
+      </c>
+      <c r="M43" t="s">
+        <v>548</v>
+      </c>
+      <c r="N43" t="s">
+        <v>549</v>
+      </c>
+      <c r="O43" t="s">
+        <v>549</v>
+      </c>
+      <c r="P43" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>549</v>
+      </c>
+      <c r="R43" t="s">
+        <v>549</v>
+      </c>
+      <c r="S43" t="s">
+        <v>549</v>
+      </c>
+      <c r="T43" t="s">
+        <v>549</v>
+      </c>
+      <c r="U43" t="s">
+        <v>549</v>
+      </c>
+      <c r="V43" t="s">
+        <v>549</v>
+      </c>
+      <c r="W43" t="s">
+        <v>549</v>
+      </c>
+      <c r="X43" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("42" , "Lukas Doyle" , "" , "(622) 843-4439" , "jguyer@optonline.net" , "New Jersey" , "33" , "43573" , "35" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E44" t="s">
+        <v>397</v>
+      </c>
+      <c r="F44" t="s">
+        <v>526</v>
+      </c>
+      <c r="G44">
+        <v>35</v>
+      </c>
+      <c r="H44" s="1">
+        <v>43574</v>
+      </c>
+      <c r="I44">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s">
+        <v>546</v>
+      </c>
+      <c r="K44" t="s">
+        <v>405</v>
+      </c>
+      <c r="M44" t="s">
+        <v>548</v>
+      </c>
+      <c r="N44" t="s">
+        <v>549</v>
+      </c>
+      <c r="O44" t="s">
+        <v>549</v>
+      </c>
+      <c r="P44" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>549</v>
+      </c>
+      <c r="R44" t="s">
+        <v>549</v>
+      </c>
+      <c r="S44" t="s">
+        <v>549</v>
+      </c>
+      <c r="T44" t="s">
+        <v>549</v>
+      </c>
+      <c r="U44" t="s">
+        <v>549</v>
+      </c>
+      <c r="V44" t="s">
+        <v>549</v>
+      </c>
+      <c r="W44" t="s">
+        <v>549</v>
+      </c>
+      <c r="X44" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("43" , "Coleman Daugherty" , "" , "(315) 830-4631" , "facet@yahoo.ca" , "Tennessee" , "35" , "43574" , "36" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>298</v>
+      </c>
+      <c r="D45" t="s">
+        <v>502</v>
+      </c>
+      <c r="E45" t="s">
+        <v>398</v>
+      </c>
+      <c r="F45" t="s">
+        <v>531</v>
+      </c>
+      <c r="G45">
+        <v>37</v>
+      </c>
+      <c r="H45" s="1">
+        <v>43575</v>
+      </c>
+      <c r="I45">
+        <v>37</v>
+      </c>
+      <c r="J45" t="s">
+        <v>547</v>
+      </c>
+      <c r="K45" t="s">
+        <v>405</v>
+      </c>
+      <c r="M45" t="s">
+        <v>548</v>
+      </c>
+      <c r="N45" t="s">
+        <v>549</v>
+      </c>
+      <c r="O45" t="s">
+        <v>549</v>
+      </c>
+      <c r="P45" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>549</v>
+      </c>
+      <c r="R45" t="s">
+        <v>549</v>
+      </c>
+      <c r="S45" t="s">
+        <v>549</v>
+      </c>
+      <c r="T45" t="s">
+        <v>549</v>
+      </c>
+      <c r="U45" t="s">
+        <v>549</v>
+      </c>
+      <c r="V45" t="s">
+        <v>549</v>
+      </c>
+      <c r="W45" t="s">
+        <v>549</v>
+      </c>
+      <c r="X45" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("44" , "Lilliana Mclean" , "" , "(291) 901-5247" , "campware@hotmail.com" , "Michigan" , "37" , "43575" , "37" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>299</v>
+      </c>
+      <c r="D46" t="s">
+        <v>503</v>
+      </c>
+      <c r="E46" t="s">
+        <v>399</v>
+      </c>
+      <c r="F46" t="s">
+        <v>527</v>
+      </c>
+      <c r="G46">
+        <v>39</v>
+      </c>
+      <c r="H46" s="1">
+        <v>43576</v>
+      </c>
+      <c r="I46">
+        <v>38</v>
+      </c>
+      <c r="J46" t="s">
+        <v>546</v>
+      </c>
+      <c r="K46" t="s">
+        <v>405</v>
+      </c>
+      <c r="M46" t="s">
+        <v>548</v>
+      </c>
+      <c r="N46" t="s">
+        <v>549</v>
+      </c>
+      <c r="O46" t="s">
+        <v>549</v>
+      </c>
+      <c r="P46" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>549</v>
+      </c>
+      <c r="R46" t="s">
+        <v>549</v>
+      </c>
+      <c r="S46" t="s">
+        <v>549</v>
+      </c>
+      <c r="T46" t="s">
+        <v>549</v>
+      </c>
+      <c r="U46" t="s">
+        <v>549</v>
+      </c>
+      <c r="V46" t="s">
+        <v>549</v>
+      </c>
+      <c r="W46" t="s">
+        <v>549</v>
+      </c>
+      <c r="X46" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("45" , "Amir Marsh" , "" , "(829) 908-5606" , "nasor@mac.com" , "Florida" , "39" , "43576" , "38" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>300</v>
+      </c>
+      <c r="D47" t="s">
+        <v>504</v>
+      </c>
+      <c r="E47" t="s">
+        <v>400</v>
+      </c>
+      <c r="F47" t="s">
+        <v>511</v>
+      </c>
+      <c r="G47">
+        <v>41</v>
+      </c>
+      <c r="H47" s="1">
+        <v>43577</v>
+      </c>
+      <c r="I47">
+        <v>39</v>
+      </c>
+      <c r="J47" t="s">
+        <v>547</v>
+      </c>
+      <c r="K47" t="s">
+        <v>405</v>
+      </c>
+      <c r="M47" t="s">
+        <v>548</v>
+      </c>
+      <c r="N47" t="s">
+        <v>549</v>
+      </c>
+      <c r="O47" t="s">
+        <v>549</v>
+      </c>
+      <c r="P47" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>549</v>
+      </c>
+      <c r="R47" t="s">
+        <v>549</v>
+      </c>
+      <c r="S47" t="s">
+        <v>549</v>
+      </c>
+      <c r="T47" t="s">
+        <v>549</v>
+      </c>
+      <c r="U47" t="s">
+        <v>549</v>
+      </c>
+      <c r="V47" t="s">
+        <v>549</v>
+      </c>
+      <c r="W47" t="s">
+        <v>549</v>
+      </c>
+      <c r="X47" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("46" , "Cale Madden" , "" , "(598) 656-7632" , "adhere@hotmail.com" , "New Jersey" , "41" , "43577" , "39" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>301</v>
+      </c>
+      <c r="D48" t="s">
+        <v>505</v>
+      </c>
+      <c r="E48" t="s">
+        <v>401</v>
+      </c>
+      <c r="F48" t="s">
+        <v>521</v>
+      </c>
+      <c r="G48">
+        <v>43</v>
+      </c>
+      <c r="H48" s="1">
+        <v>43578</v>
+      </c>
+      <c r="I48">
+        <v>40</v>
+      </c>
+      <c r="J48" t="s">
+        <v>546</v>
+      </c>
+      <c r="K48" t="s">
+        <v>405</v>
+      </c>
+      <c r="M48" t="s">
+        <v>548</v>
+      </c>
+      <c r="N48" t="s">
+        <v>549</v>
+      </c>
+      <c r="O48" t="s">
+        <v>549</v>
+      </c>
+      <c r="P48" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>549</v>
+      </c>
+      <c r="R48" t="s">
+        <v>549</v>
+      </c>
+      <c r="S48" t="s">
+        <v>549</v>
+      </c>
+      <c r="T48" t="s">
+        <v>549</v>
+      </c>
+      <c r="U48" t="s">
+        <v>549</v>
+      </c>
+      <c r="V48" t="s">
+        <v>549</v>
+      </c>
+      <c r="W48" t="s">
+        <v>549</v>
+      </c>
+      <c r="X48" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("47" , "Makhi Page" , "" , "(314) 308-1203" , "claypool@aol.com" , "North Carolina" , "43" , "43578" , "40" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" t="s">
+        <v>506</v>
+      </c>
+      <c r="E49" t="s">
+        <v>402</v>
+      </c>
+      <c r="F49" t="s">
+        <v>527</v>
+      </c>
+      <c r="G49">
+        <v>45</v>
+      </c>
+      <c r="H49" s="1">
+        <v>43579</v>
+      </c>
+      <c r="I49">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s">
+        <v>547</v>
+      </c>
+      <c r="K49" t="s">
+        <v>405</v>
+      </c>
+      <c r="M49" t="s">
+        <v>548</v>
+      </c>
+      <c r="N49" t="s">
+        <v>549</v>
+      </c>
+      <c r="O49" t="s">
+        <v>549</v>
+      </c>
+      <c r="P49" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>549</v>
+      </c>
+      <c r="R49" t="s">
+        <v>549</v>
+      </c>
+      <c r="S49" t="s">
+        <v>549</v>
+      </c>
+      <c r="T49" t="s">
+        <v>549</v>
+      </c>
+      <c r="U49" t="s">
+        <v>549</v>
+      </c>
+      <c r="V49" t="s">
+        <v>549</v>
+      </c>
+      <c r="W49" t="s">
+        <v>549</v>
+      </c>
+      <c r="X49" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("48" , "Emmett Gilmore" , "" , "(266) 804-9830" , "pereinar@aol.com" , "Florida" , "45" , "43579" , "41" , "Female" , "Active" )</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>303</v>
+      </c>
+      <c r="D50" t="s">
+        <v>507</v>
+      </c>
+      <c r="E50" t="s">
+        <v>403</v>
+      </c>
+      <c r="F50" t="s">
+        <v>516</v>
+      </c>
+      <c r="G50">
+        <v>47</v>
+      </c>
+      <c r="H50" s="1">
+        <v>43580</v>
+      </c>
+      <c r="I50">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s">
+        <v>546</v>
+      </c>
+      <c r="K50" t="s">
+        <v>405</v>
+      </c>
+      <c r="M50" t="s">
+        <v>548</v>
+      </c>
+      <c r="N50" t="s">
+        <v>549</v>
+      </c>
+      <c r="O50" t="s">
+        <v>549</v>
+      </c>
+      <c r="P50" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>549</v>
+      </c>
+      <c r="R50" t="s">
+        <v>549</v>
+      </c>
+      <c r="S50" t="s">
+        <v>549</v>
+      </c>
+      <c r="T50" t="s">
+        <v>549</v>
+      </c>
+      <c r="U50" t="s">
+        <v>549</v>
+      </c>
+      <c r="V50" t="s">
+        <v>549</v>
+      </c>
+      <c r="W50" t="s">
+        <v>549</v>
+      </c>
+      <c r="X50" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("49" , "Kellen Young" , "" , "(464) 847-0353" , "frode@icloud.com" , "Connecticut" , "47" , "43580" , "42" , "Male" , "Active" )</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" t="s">
+        <v>508</v>
+      </c>
+      <c r="E51" t="s">
+        <v>404</v>
+      </c>
+      <c r="F51" t="s">
+        <v>530</v>
+      </c>
+      <c r="G51">
+        <v>49</v>
+      </c>
+      <c r="H51" s="1">
+        <v>43581</v>
+      </c>
+      <c r="I51">
+        <v>43</v>
+      </c>
+      <c r="J51" t="s">
+        <v>547</v>
+      </c>
+      <c r="K51" t="s">
+        <v>405</v>
+      </c>
+      <c r="M51" t="s">
+        <v>548</v>
+      </c>
+      <c r="N51" t="s">
+        <v>549</v>
+      </c>
+      <c r="O51" t="s">
+        <v>549</v>
+      </c>
+      <c r="P51" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>549</v>
+      </c>
+      <c r="R51" t="s">
+        <v>549</v>
+      </c>
+      <c r="S51" t="s">
+        <v>549</v>
+      </c>
+      <c r="T51" t="s">
+        <v>549</v>
+      </c>
+      <c r="U51" t="s">
+        <v>549</v>
+      </c>
+      <c r="V51" t="s">
+        <v>549</v>
+      </c>
+      <c r="W51" t="s">
+        <v>549</v>
+      </c>
+      <c r="X51" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO "Web_App_customer" VALUES("50" , "Antwan Mack" , "" , "(708) 203-9281" , "timlinux@optonline.net" , "Mississippi" , "49" , "43581" , "43" , "Female" , "Active" )</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>